--- a/materials/lv2.xlsx
+++ b/materials/lv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\go-north\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B277A-12E4-4DEC-B718-AD68518038DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC7C10A-DC3A-4662-BB05-E5F299101C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="1">
   <si>
     <t>#</t>
   </si>
@@ -373,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +412,14 @@
       <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,11 +447,17 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,11 +485,17 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,68 +517,80 @@
       <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -569,30 +599,36 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
@@ -601,11 +637,17 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,29 +657,35 @@
       <c r="C8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,29 +695,35 @@
       <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,29 +733,35 @@
       <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,8 +792,14 @@
       <c r="J11" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,29 +809,35 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,61 +847,73 @@
       <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,36 +923,42 @@
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -892,132 +982,10 @@
       <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/materials/lv2.xlsx
+++ b/materials/lv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\go-north\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC7C10A-DC3A-4662-BB05-E5F299101C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4342AC-0A9B-43E2-8CFF-FFA8B832B1B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="1">
   <si>
     <t>#</t>
   </si>
@@ -376,7 +376,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -520,7 +520,7 @@
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -558,7 +558,7 @@
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -651,10 +651,10 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -675,10 +675,10 @@
       <c r="I8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -689,10 +689,10 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -713,10 +713,10 @@
       <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -727,10 +727,10 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -751,10 +751,10 @@
       <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -765,10 +765,10 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -789,10 +789,10 @@
       <c r="I11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">

--- a/materials/lv2.xlsx
+++ b/materials/lv2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\go-north\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4342AC-0A9B-43E2-8CFF-FFA8B832B1B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC379046-5219-419E-83CC-49DEF4ED0687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="1">
   <si>
     <t>#</t>
   </si>
@@ -376,7 +376,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -917,34 +917,34 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
